--- a/static/Media/SampleExcels/classmaster.xlsx
+++ b/static/Media/SampleExcels/classmaster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\GIT PROJECTS\schoolerp\static\Media\SampleExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\OneRoof\SchoolERP\schoolerp\static\Media\SampleExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,21 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>class</t>
   </si>
   <si>
-    <t>1A</t>
-  </si>
-  <si>
     <t>1B</t>
-  </si>
-  <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>1D</t>
   </si>
 </sst>
 </file>
@@ -356,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -374,21 +365,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
